--- a/doc/CAM_CPI_reference.xlsx
+++ b/doc/CAM_CPI_reference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info " sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,7 @@
     <sheet name="IPIF_rel1.0.0" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="IPREGLIST_rel1.0.0" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="IPREGMAP_rel1.0.0" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="IPTREGMAP_rel1.0.0" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="VerPlan_rel1.0.0" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="VerPlan_rel1.0.0" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="IF_DIR" vbProcedure="false">#REF!</definedName>
@@ -25,13 +24,6 @@
     <definedName function="false" hidden="false" name="IF_TYPE" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="IF_VOLTAGE" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="REGISTERTYPE_LIST" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="IF_DIR" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="IF_IO" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="IF_ISO" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="IF_LVLSHIFT" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="IF_TYPE" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="IF_VOLTAGE" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="REGISTERTYPE_LIST" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="240">
   <si>
     <t xml:space="preserve">Document Information</t>
   </si>
@@ -761,7 +753,73 @@
 NOTE: not used if FORMAT == BYPASS</t>
   </si>
   <si>
-    <t xml:space="preserve">testcase location&amp;name</t>
+    <t xml:space="preserve">Test tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional Feature Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registers_default_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check default values of all memory mapped registers after releasing chip global reset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registers_access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check registers read/write accesses as they are defined in specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure and receive a full frame image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slice_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure and receive a ROI of a full frame image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop_frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure and check the drop frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesure the time for one image; configure drop frame ; check the time to the next image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continous_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure and check continous transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the time between images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check different input format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift_pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check shift pixel feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB_coef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check RGB coef feature</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1031,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1248,6 +1306,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1330,16 +1392,16 @@
   </sheetPr>
   <dimension ref="B1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.2040816326531"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,7 +1631,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1584,17 +1646,17 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="23" width="10.3928571428571"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="29.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="23" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1975,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1928,19 +1990,19 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="44" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="23" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.3928571428571"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="45.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="44" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="44" width="24.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="23" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +2045,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1998,22 +2060,22 @@
   </sheetPr>
   <dimension ref="A1:AMC27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="23" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="23" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="23" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="23" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="21" min="16" style="23" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="23" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1017" min="23" style="23" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="23" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="23" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="16" style="23" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="23" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="23" style="23" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,34 +3480,34 @@
     <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <dataValidations count="6">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1" type="list">
+      <formula1>IF_TYPE</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:E1" type="list">
+      <formula1>IF_VOLTAGE</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1" type="list">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1" type="whole">
       <formula1>1</formula1>
       <formula2>65536</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1" type="list">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1" type="list">
-      <formula1>IF_TYPE</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:E1" type="list">
-      <formula1>IF_VOLTAGE</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q1" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q1" type="list">
       <formula1>IF_LVLSHIFT</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R1" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R1" type="list">
       <formula1>IF_ISO</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3460,23 +3522,23 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.5714285714286"/>
-    <col collapsed="false" hidden="true" max="2" min="2" style="54" width="0"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="55" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="55" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="24" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="54" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="19.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="54" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="55" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="55" width="24.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="55" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="24" width="69.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="54" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="54" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,14 +3916,14 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1" type="list">
       <formula1>REGISTERTYPE_LIST</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3874,25 +3936,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="60" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="61" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="44" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="44" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="60" width="56.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="61" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,7 +4663,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4614,102 +4676,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="61" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="60" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="61" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="85.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.39"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="68" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>11</v>
+        <v>218</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3928571428571"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
